--- a/libExcel/ForExcelTest2.xlsx
+++ b/libExcel/ForExcelTest2.xlsx
@@ -337,7 +337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C9" sqref="C9"/>
@@ -377,6 +377,30 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>bg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/libExcel/ForExcelTest2.xlsx
+++ b/libExcel/ForExcelTest2.xlsx
@@ -337,7 +337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C9" sqref="C9"/>
@@ -401,6 +401,18 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
